--- a/biology/Botanique/Gagea_polidorii/Gagea_polidorii.xlsx
+++ b/biology/Botanique/Gagea_polidorii/Gagea_polidorii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagea ×polidorii est une espèce de plantes à bulbe du genre des gagées et de la famille des Liliacées.
-Elle a été décrite par Jean-Marc Tison en 2004 dans la revue Acta Botanica Gallica. Elle est dédiée à Jean-Louis Polidori, le premier botaniste a l'avoir remarquée sur le terrain[2]. Cette espèce est peut-être un hybride ancien entre Gagea fragifera et Gagea villosa. Mais sa stabilité permet de le considérer comme une espèce[3].
-Elle a été trouvée dans quatre stations : une dans les Alpes-Maritimes, une dans les Hautes Alpes, une en Corse et une autre en Italie. L'holotype a été récolté en juin 1999 dans la première station[2].
+Elle a été décrite par Jean-Marc Tison en 2004 dans la revue Acta Botanica Gallica. Elle est dédiée à Jean-Louis Polidori, le premier botaniste a l'avoir remarquée sur le terrain. Cette espèce est peut-être un hybride ancien entre Gagea fragifera et Gagea villosa. Mais sa stabilité permet de le considérer comme une espèce.
+Elle a été trouvée dans quatre stations : une dans les Alpes-Maritimes, une dans les Hautes Alpes, une en Corse et une autre en Italie. L'holotype a été récolté en juin 1999 dans la première station.
 </t>
         </is>
       </c>
